--- a/img/Book1.xlsx
+++ b/img/Book1.xlsx
@@ -35,10 +35,10 @@
     <t>col</t>
   </si>
   <si>
-    <t>size-w</t>
+    <t>width</t>
   </si>
   <si>
-    <t>size-h</t>
+    <t>height</t>
   </si>
 </sst>
 </file>
@@ -411,8 +411,8 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <f>B5/B2</f>
-        <v>48</v>
+        <f>B6/B2</f>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -423,7 +423,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <f>B6/B3</f>
+        <f>B5/B3</f>
         <v>32</v>
       </c>
     </row>
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>384</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
